--- a/rider/weekly/2017_22.xlsx
+++ b/rider/weekly/2017_22.xlsx
@@ -189,19 +189,19 @@
                   <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>213.71</c:v>
+                  <c:v>218.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225.39</c:v>
+                  <c:v>215.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234.5</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.23</c:v>
+                  <c:v>237.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.31</c:v>
+                  <c:v>114.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.09999999999999</c:v>
+                  <c:v>90.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +789,7 @@
         <v>212</v>
       </c>
       <c r="D2">
-        <v>213.71</v>
+        <v>218.61</v>
       </c>
       <c r="E2">
         <v>122.4</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D3">
-        <v>225.39</v>
+        <v>215.03</v>
       </c>
       <c r="E3">
         <v>122.57</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D4">
-        <v>234.5</v>
+        <v>234.8</v>
       </c>
       <c r="E4">
         <v>122.73</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D5">
-        <v>237.23</v>
+        <v>237.87</v>
       </c>
       <c r="E5">
         <v>122.89</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>113.31</v>
+        <v>114.25</v>
       </c>
       <c r="E6">
         <v>123.05</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>90.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="E7">
         <v>123.21</v>
